--- a/IntensiveLearning/App_Data/Test/موظفين.xlsx
+++ b/IntensiveLearning/App_Data/Test/موظفين.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="24">
   <si>
     <t>الاسم</t>
   </si>
@@ -57,40 +57,46 @@
     <t>الفترة</t>
   </si>
   <si>
-    <t>الراتب</t>
-  </si>
-  <si>
     <t>اسم المستخدم</t>
   </si>
   <si>
-    <t>محمد</t>
-  </si>
-  <si>
-    <t>عمر</t>
-  </si>
-  <si>
-    <t>22/5/1987</t>
-  </si>
-  <si>
-    <t>علوم</t>
-  </si>
-  <si>
-    <t>ابتدائي</t>
-  </si>
-  <si>
-    <t>ذكر</t>
-  </si>
-  <si>
-    <t>استاذ</t>
+    <t>عدد سنوات الخبرة</t>
+  </si>
+  <si>
+    <t>داخل أو خارج الملاك</t>
+  </si>
+  <si>
+    <t>الوظيفة القديمة</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>خارج</t>
+  </si>
+  <si>
+    <t>انثى</t>
+  </si>
+  <si>
+    <t>أستاذ</t>
+  </si>
+  <si>
+    <t>الفترة الصباحية</t>
+  </si>
+  <si>
+    <t>mhmhm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,15 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
@@ -418,22 +421,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="P3" sqref="A3:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="5"/>
-    <col min="8" max="8" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="9.140625" style="5"/>
-    <col min="14" max="14" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.140625" style="4"/>
+    <col min="15" max="15" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,69 +463,302 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>40849</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4">
+        <v>35</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6">
-        <v>43406</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="5">
-        <v>1500</v>
+      <c r="K2" s="5">
+        <v>43049</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H3" s="5" t="s">
-        <v>16</v>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5">
+        <v>40849</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4">
+        <v>35</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5">
+        <v>43049</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5">
+        <v>40849</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="4">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5">
+        <v>43049</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5">
+        <v>40849</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5">
+        <v>43049</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5">
+        <v>40849</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>35</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="5">
+        <v>43049</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>40849</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
+        <v>35</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="5">
+        <v>43049</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="abRVuR0cZ7OwLtdSu/ZIKUhkgB8/SfGWw4SBfh016bSKiSuJmB//gXsNBwkYshE29axKMx8spal9RdLqbu6YTg==" saltValue="YAiw7UfyTdv4OcmiYpLxKw==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E19BkGuZJS4It+dRBnDsH20JO8Fj8kL1LOLwttIdNFoMc65iZ+yfu1If09WkVQHFSkD03FzqZ+XAueLcLpp6jg==" saltValue="iSg8EnMvbRhTMrOVjdQpow==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle=" تاريخ" error="يرجى الادخال من الشكل 22/2/1990" sqref="D1"/>
   </dataValidations>
